--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ケイヒン_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="新潟運輸_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="トール_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="西濃_通常" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,89 +66,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -159,17 +91,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -178,7 +110,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -189,17 +121,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -208,7 +140,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -219,17 +151,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -238,7 +170,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -249,17 +181,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -551,7 +483,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="7.48" customWidth="1" min="3" max="3"/>
+    <col width="24.2" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="17.82" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＭＥK (14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>X20B1</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/24納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112603H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20120802H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.08" customWidth="1" min="3" max="3"/>
+    <col width="31.68" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="37.95" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ-４０-Ｔ２塗料 (1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20121707H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>K6659550</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷　西濃にて</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112652T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>Q8874785</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷 工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20111651T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>25616Z</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20111752T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>25620Z</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.22" customWidth="1" min="3" max="3"/>
+    <col width="32.01" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="9.240000000000002" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色　Ｅ－０１４ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20122150T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ＹＫＰ</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20113051T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/24納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -564,42 +1284,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.2"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="17.16"/>
-    <col customWidth="1" max="4" min="4" width="35.31"/>
-    <col customWidth="1" max="5" min="5" width="12.1"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.700000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="18.59"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="2.2" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.16" customWidth="1" min="3" max="3"/>
+    <col width="35.31" customWidth="1" min="4" max="4"/>
+    <col width="12.1" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.700000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="18.59" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -661,7 +1381,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -707,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -753,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -807,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -861,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="9">
+    <row r="9" ht="18" customHeight="1">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
@@ -915,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="10">
+    <row r="10" ht="18" customHeight="1">
       <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
@@ -969,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="11">
+    <row r="11" ht="18" customHeight="1">
       <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
@@ -1023,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="12">
+    <row r="12" ht="18" customHeight="1">
       <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
@@ -1077,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="13">
+    <row r="13" ht="18" customHeight="1">
       <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
@@ -1131,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="14">
+    <row r="14" ht="18" customHeight="1">
       <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
@@ -1185,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="15">
+    <row r="15" ht="18" customHeight="1">
       <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
@@ -1239,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="16">
+    <row r="16" ht="18" customHeight="1">
       <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
@@ -1293,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="17">
+    <row r="17" ht="18" customHeight="1">
       <c r="A17" s="1" t="n">
         <v>13</v>
       </c>
@@ -1347,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="18">
+    <row r="18" ht="18" customHeight="1">
       <c r="A18" s="1" t="n">
         <v>14</v>
       </c>
@@ -1401,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="19">
+    <row r="19" ht="18" customHeight="1">
       <c r="A19" s="1" t="n">
         <v>15</v>
       </c>
@@ -1455,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="20">
+    <row r="20" ht="18" customHeight="1">
       <c r="A20" s="1" t="n">
         <v>16</v>
       </c>
@@ -1509,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="21">
+    <row r="21" ht="18" customHeight="1">
       <c r="A21" s="1" t="n">
         <v>17</v>
       </c>
@@ -1563,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="22">
+    <row r="22" ht="18" customHeight="1">
       <c r="A22" s="1" t="n">
         <v>18</v>
       </c>
@@ -1617,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="23">
+    <row r="23" ht="18" customHeight="1">
       <c r="A23" s="1" t="n">
         <v>19</v>
       </c>
@@ -1671,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="24">
+    <row r="24" ht="18" customHeight="1">
       <c r="A24" s="1" t="n">
         <v>20</v>
       </c>
@@ -1717,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="25">
+    <row r="25" ht="18" customHeight="1">
       <c r="A25" s="1" t="n">
         <v>21</v>
       </c>
@@ -1764,797 +2484,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="7.48"/>
-    <col customWidth="1" max="4" min="4" width="24.2"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="17.82"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>旭真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＭＥK (14KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>X20B1</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>12/24納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20112603H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20120802H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="11.22"/>
-    <col customWidth="1" max="4" min="4" width="32.01"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="9.240000000000002"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴ－３２金色　Ｅ－０１４ (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20122150T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ＹＫＰ</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20113051T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>12/24納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="14.08"/>
-    <col customWidth="1" max="4" min="4" width="31.68"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="37.95"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-４０-Ｔ２塗料 (1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20121707H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>K6659550</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期　土気出荷　西濃にて</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー浜松</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20112652T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>Q8874785</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期 土気出荷 工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20111651T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>25616Z</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20201222</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>20111752T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>25620Z</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>12/23納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2572,6 +2504,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="トール_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="西濃_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="西濃_通常" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新潟運輸_曜日違い" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="トール_曜日違い" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ケイヒン_通常" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,21 +69,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -90,17 +162,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -109,7 +181,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -120,17 +192,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -139,7 +211,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -150,17 +222,137 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -452,275 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="7.48" customWidth="1" min="3" max="3"/>
-    <col width="19.8" customWidth="1" min="4" max="4"/>
-    <col width="7.700000000000001" customWidth="1" min="5" max="5"/>
-    <col width="7.700000000000001" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="5.5" customWidth="1" min="9" max="9"/>
-    <col width="19.36" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：NoData NoData     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>TKTT</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>2-ｴﾁﾙｱﾝﾄﾗｷﾉﾝ</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>1907005</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>PO2012-009</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>80000</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/6引き取り 土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>TKTT</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ﾒﾁﾙﾊｲﾄﾞﾛｷﾉﾝ(TKTT)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>00904</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>PO2012-009</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/6引き取り 土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210106</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>TKTT</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>2-ｴﾁﾙｱﾝﾄﾗｷﾉﾝ(TKTT)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>2003005</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>PO2012-009</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>1/6引き取り 土気出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -733,42 +657,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.49" customWidth="1" min="3" max="3"/>
-    <col width="29.7" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.700000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="7.040000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="18.7"/>
+    <col customWidth="1" max="4" min="4" width="33.21999999999999"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="25.73999999999999"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -830,123 +754,895 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>近鉄ｺｽﾓｽ　成田物流</t>
+          <t>福山合成㈱東広島工場</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５０５Ｋ２　Ａ (UN/15KG)</t>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20122152T</t>
+          <t>20112652T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>RRU0240</t>
+          <t>B7949501</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/8納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/8納期　土気出荷　安井様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>近鉄ｺｽﾓｽ　成田物流</t>
+          <t>福山合成㈱東広島工場</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５０５Ｋ２　Ｂ (UN/15KG)</t>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20122252T</t>
+          <t>20082451T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>B7949455</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/8納期　土気出荷　安井様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="14.08"/>
+    <col customWidth="1" max="4" min="4" width="31.68"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="35.74999999999999"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20112652T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q8892899</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期 土気出荷 工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20111651T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>RRU0240</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/8納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20111752T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121052T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.75"/>
+    <col customWidth="1" max="4" min="4" width="27.17"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="16.39"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20120853T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112702H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>K6720152</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>市光工業伊勢原</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20113052T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>市光工業伊勢原</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20122153T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="31.68"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="35.74999999999999"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20112652T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q8887763</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期 土気出荷 工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -959,42 +1655,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="28.27" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="16.39" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.350000000000001"/>
+    <col customWidth="1" max="4" min="4" width="27.5"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="15.62"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1056,32 +1752,32 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>日南</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３６１　アンダー (15KG)</t>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20120754T</t>
+          <t>20111951T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1090,72 +1786,844 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/8納期 土気出荷</t>
+          <t>1/7納期 土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210106</t>
+          <t>20210105</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＫＶ－３８アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20111951T</t>
+          <t>20111252T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/8納期　根上様宛</t>
+          <t>1/7納期 土気出荷</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="33.66"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="12.1"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="16.39"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20120802H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>日本通運　成田</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－７０６ＣＬ(改) Ｂ液 (UN/17KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20121410H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>HEC-INK20K2</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>日本通運</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20121602H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTLB340</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>日本通運</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121404H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>TTLB340</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="16.83"/>
+    <col customWidth="1" max="4" min="4" width="34.54"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="7.040000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20122202H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20122203H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１０ メタル (UN/25KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20122204H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121652T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ THINNER (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20122201H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>20121752T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1169,6 +2637,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="トール_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="西濃_曜日違い" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="新潟運輸_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="西濃_通常" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="新潟運輸_曜日違い" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="トール_曜日違い" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ケイヒン_通常" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -69,89 +69,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -162,17 +94,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -181,7 +113,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -192,17 +124,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -211,7 +143,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -222,17 +154,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -241,7 +173,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -252,17 +184,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -271,7 +203,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -282,17 +214,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -301,7 +233,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -312,17 +244,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -331,7 +263,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -342,17 +274,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -644,7 +576,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="16.83" customWidth="1" min="3" max="3"/>
+    <col width="34.54" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="7.040000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20122202H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20122203H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１０ メタル (UN/25KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20122204H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121652T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ THINNER (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20122201H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>20121752T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>IINS4690</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -657,42 +1031,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="18.7"/>
-    <col customWidth="1" max="4" min="4" width="33.21999999999999"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="25.73999999999999"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="18.7" customWidth="1" min="3" max="3"/>
+    <col width="33.21999999999999" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="25.73999999999999" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0001 トール     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -754,7 +1128,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -804,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -855,14 +1229,392 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.09" customWidth="1" min="3" max="3"/>
+    <col width="31.68" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="35.74999999999999" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20112652T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q8887763</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/6納期 土気出荷 工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.350000000000001" customWidth="1" min="3" max="3"/>
+    <col width="27.5" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="15.62" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20111951T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20111252T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>1/7納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -875,42 +1627,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="14.08"/>
-    <col customWidth="1" max="4" min="4" width="31.68"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="35.74999999999999"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.08" customWidth="1" min="3" max="3"/>
+    <col width="31.68" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="35.74999999999999" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0003 西濃     配送区分：4 曜日違い</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -972,7 +1724,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1022,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -1068,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -1114,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -1161,14 +1913,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1181,42 +1933,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.75"/>
-    <col customWidth="1" max="4" min="4" width="27.17"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="16.39"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.09" customWidth="1" min="3" max="3"/>
+    <col width="33.66" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="12.1" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="16.39" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0001 トール     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1278,7 +2030,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1289,34 +2041,38 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20120853T</t>
+          <t>20120802H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/6納期 土気出荷</t>
+          <t>1/7納期　土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1324,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -1335,30 +2091,30 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
+          <t>日本通運　成田</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>Ｋ－７０６ＣＬ(改) Ｂ液 (UN/17KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20112702H</t>
+          <t>20121410H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>K6720152</t>
+          <t>HEC-INK20K2</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -1366,15 +2122,19 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/6納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -1385,42 +2145,50 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>市光工業伊勢原</t>
+          <t>日本通運</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20113052T</t>
+          <t>20121602H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTLB340</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1/6納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -1431,428 +2199,58 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>市光工業伊勢原</t>
+          <t>日本通運</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20122153T</t>
+          <t>20121404H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>TTLB340</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1/6納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
+          <t>1/7納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.09"/>
-    <col customWidth="1" max="4" min="4" width="31.68"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="35.74999999999999"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー浜松</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20112652T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q8887763</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期 土気出荷 工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.350000000000001"/>
-    <col customWidth="1" max="4" min="4" width="27.5"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="15.62"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20111951T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20111252T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1865,42 +2263,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.09"/>
-    <col customWidth="1" max="4" min="4" width="33.66"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="12.1"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="16.39"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
+    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.75" customWidth="1" min="3" max="3"/>
+    <col width="27.17" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="7.48" customWidth="1" min="6" max="6"/>
+    <col width="3.74" customWidth="1" min="7" max="7"/>
+    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="3.74" customWidth="1" min="9" max="9"/>
+    <col width="16.39" customWidth="1" min="10" max="10"/>
+    <col width="1.1" customWidth="1" min="11" max="11"/>
+    <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1962,7 +2360,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1973,38 +2371,34 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>ヘイワテクノ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＦＰＡ－３アンダー (18㍑)</t>
+          <t>ＢＰ－５０アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20120802H</t>
+          <t>20120853T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/7納期　土気出荷</t>
+          <t>1/6納期 土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -2012,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -2023,30 +2417,30 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>日本通運　成田</t>
+          <t>ｻｶｯｸ㈱本社工場</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ(改) Ｂ液 (UN/17KG)</t>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20121410H</t>
+          <t>20112702H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>HEC-INK20K2</t>
+          <t>K6720152</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -2054,19 +2448,15 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/6納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -2077,50 +2467,42 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>日本通運</t>
+          <t>市光工業伊勢原</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20121602H</t>
+          <t>20113052T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTLB340</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/6納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -2131,495 +2513,45 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>日本通運</t>
+          <t>市光工業伊勢原</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20121404H</t>
+          <t>20122153T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>TTLB340</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>1/6納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="1.87"/>
-    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
-    <col customWidth="1" max="3" min="3" width="16.83"/>
-    <col customWidth="1" max="4" min="4" width="34.54"/>
-    <col customWidth="1" max="5" min="5" width="9.9"/>
-    <col customWidth="1" max="6" min="6" width="7.48"/>
-    <col customWidth="1" max="7" min="7" width="3.74"/>
-    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
-    <col customWidth="1" max="9" min="9" width="3.74"/>
-    <col customWidth="1" max="10" min="10" width="7.040000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.1"/>
-    <col customWidth="1" max="12" min="12" width="3.3"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20122202H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20122203H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１０ メタル (UN/25KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20122204H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>20121652T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ THINNER (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>20122201H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="10">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３２０ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>20121752T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2637,6 +2569,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -8,13 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -173,96 +170,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -581,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,16 +496,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
+    <col width="2.2" customWidth="1" min="1" max="1"/>
     <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
     <col width="16.83" customWidth="1" min="3" max="3"/>
-    <col width="34.54" customWidth="1" min="4" max="4"/>
+    <col width="36.41" customWidth="1" min="4" max="4"/>
     <col width="9.9" customWidth="1" min="5" max="5"/>
     <col width="7.48" customWidth="1" min="6" max="6"/>
     <col width="3.74" customWidth="1" min="7" max="7"/>
     <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
     <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="7.040000000000001" customWidth="1" min="10" max="10"/>
+    <col width="8.140000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.1" customWidth="1" min="11" max="11"/>
     <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
@@ -692,26 +599,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>名港海運西2区</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+          <t>Ｋ－７０６ＣＬ Ａ液 (UN/14KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20122202H</t>
+          <t>21012806H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -720,15 +627,15 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>IINS4690</t>
+          <t>TTL1150</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/6納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -746,26 +653,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+          <t>ＳＵ－１００ＨＮＶ Ｂ (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20122203H</t>
+          <t>21012709H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -774,15 +681,15 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>IINS4690</t>
+          <t>TTLS1190</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/6納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -800,26 +707,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－１０ メタル (UN/25KG)</t>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20122204H</t>
+          <t>21020203H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -828,15 +735,15 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>IINS4690</t>
+          <t>TTLS1190</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1/6納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -854,26 +761,26 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+          <t>ＳＴＲ－１２０ (UN/15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20121652T</t>
+          <t>21012708H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -882,15 +789,15 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>IINS4690</t>
+          <t>TTLS1190</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1/6納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -908,26 +815,26 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ THINNER (UN/15KG)</t>
+          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>20122201H</t>
+          <t>21012807H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -936,15 +843,15 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>IINS4690</t>
+          <t>TTLS1190</t>
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>1/6納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -962,51 +869,267 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＨ－３８０ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21020403H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>TTLS1190</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210210</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１クリヤー(NS) (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21020402H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>TTLS1190</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210210</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21020308H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>TTLS1190</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210210</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21020401H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>TTLS1190</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210210</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
           <t>安達包運　名港西２</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３２０ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>20121752T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21020502H</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>IINS4690</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>1/6納期</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>INS6841</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,224 +1141,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="18.7" customWidth="1" min="3" max="3"/>
-    <col width="33.21999999999999" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="25.73999999999999" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20112652T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>B7949501</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/8納期　土気出荷　安井様宛</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20082451T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>B7949455</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/8納期　土気出荷　安井様宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1258,7 +1163,7 @@
     <col width="3.74" customWidth="1" min="7" max="7"/>
     <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
     <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="35.74999999999999" customWidth="1" min="10" max="10"/>
+    <col width="34.64999999999999" customWidth="1" min="10" max="10"/>
     <col width="1.1" customWidth="1" min="11" max="11"/>
     <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1352,7 +1257,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1367,11 +1272,11 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20112652T</t>
+          <t>21010751T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1380,15 +1285,15 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q8887763</t>
+          <t>Q8991056</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/6納期 土気出荷 工場72受入担当：楠様</t>
+          <t>2/12納期土気出荷工場72受入担当：楠様</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1403,217 +1308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.350000000000001" customWidth="1" min="3" max="3"/>
-    <col width="27.5" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="15.62" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20111951T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20111252T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期 土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1629,14 +1324,14 @@
   <cols>
     <col width="1.87" customWidth="1" min="1" max="1"/>
     <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.08" customWidth="1" min="3" max="3"/>
-    <col width="31.68" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
+    <col width="11.22" customWidth="1" min="3" max="3"/>
+    <col width="26.4" customWidth="1" min="4" max="4"/>
+    <col width="12.1" customWidth="1" min="5" max="5"/>
     <col width="7.48" customWidth="1" min="6" max="6"/>
     <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
     <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="35.74999999999999" customWidth="1" min="10" max="10"/>
+    <col width="17.49" customWidth="1" min="10" max="10"/>
     <col width="1.1" customWidth="1" min="11" max="11"/>
     <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1658,7 +1353,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃     配送区分：4 曜日違い</t>
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
         </is>
       </c>
     </row>
@@ -1730,43 +1425,43 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20112652T</t>
+          <t>20120952T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q8892899</t>
+          <t>NO.3</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/7納期 土気出荷 工場72受入担当：楠様</t>
+          <t>2/12納期　土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1780,39 +1475,43 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20111651T</t>
+          <t>20110502H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
+          <t>2/12納期　土気出荷</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1826,22 +1525,22 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＵＴ－２１０Ｎトップ (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20111752T</t>
+          <t>20041453T52</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -1858,7 +1557,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -1872,39 +1571,43 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>染料液ＲＨＳイエロー (14KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20121052T</t>
+          <t>21020850T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>NO.12</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1/7納期</t>
+          <t>2/12納期</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1919,343 +1622,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="33.66" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="12.1" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="16.39" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール     配送区分：4 曜日違い</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20120802H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>日本通運　成田</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ｋ－７０６ＣＬ(改) Ｂ液 (UN/17KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20121410H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>HEC-INK20K2</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>日本通運</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20121602H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTLB340</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210105</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>日本通運</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>20121404H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>TTLB340</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>1/7納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,13 +1639,13 @@
     <col width="1.87" customWidth="1" min="1" max="1"/>
     <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
     <col width="13.75" customWidth="1" min="3" max="3"/>
-    <col width="27.17" customWidth="1" min="4" max="4"/>
+    <col width="30.14" customWidth="1" min="4" max="4"/>
     <col width="9.9" customWidth="1" min="5" max="5"/>
     <col width="7.48" customWidth="1" min="6" max="6"/>
     <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
     <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="16.39" customWidth="1" min="10" max="10"/>
+    <col width="17.49" customWidth="1" min="10" max="10"/>
     <col width="1.1" customWidth="1" min="11" max="11"/>
     <col width="3.3" customWidth="1" min="12" max="12"/>
   </cols>
@@ -2366,26 +1739,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>三栄産業</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20120853T</t>
+          <t>20122306H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -2394,11 +1767,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1/6納期 土気出荷</t>
+          <t>2/12納期　土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -2412,7 +1785,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -2440,7 +1813,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>K6720152</t>
+          <t>K7028740</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -2448,7 +1821,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1/6納期 土気出荷</t>
+          <t>2/12納期　土気出荷</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -2462,39 +1835,43 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>市光工業伊勢原</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20113052T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>2101221013</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>1/6納期　土気出荷</t>
+          <t>2/12納期 根上様</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -2508,43 +1885,97 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210105</t>
+          <t>20210210</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>市光工業伊勢原</t>
+          <t>高圧化工</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20122153T</t>
+          <t>20112402H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>1090000758-1</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1/6納期　土気出荷</t>
+          <t>2/12納期　土気出荷</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210210</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20112451T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>1090000758-2</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>2/12納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2555,7 +1986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="トール_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ケイヒン_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="西濃_曜日違い" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="西濃_通常" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新潟運輸_通常" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,21 +67,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -91,17 +160,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -110,7 +179,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -121,17 +190,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -140,7 +209,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -151,17 +220,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -170,7 +239,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -181,17 +250,47 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -483,12 +582,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,42 +595,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.2" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="16.83" customWidth="1" min="3" max="3"/>
-    <col width="36.41" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="8.140000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.350000000000001"/>
+    <col customWidth="1" max="4" min="4" width="32.01"/>
+    <col customWidth="1" max="5" min="5" width="12.1"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="6.600000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -593,28 +692,28 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>名港海運西2区</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ Ａ液 (UN/14KG)</t>
+          <t>ウレット８００ Ｂ液 (16KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21012806H</t>
+          <t>20121405H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -625,523 +724,895 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>TTL1150</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ (UN/15KG)</t>
+          <t>ＳＴ－３２金色Ｄ－３１２Ａ (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21012709H</t>
+          <t>21021050T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+          <t>Ｋ－１５０ＮＰアンダー (18㍑）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21020203H</t>
+          <t>21012101H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="8">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＲ－１２０ (UN/15KG)</t>
+          <t>ＳＴ－３２トップ (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21012708H</t>
+          <t>20100555T53</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="9">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
+          <t>ウレット８００ Ａ液 (16KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21012807H</t>
+          <t>20121503H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
+      <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＨ－３８０ Ａ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21020403H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１クリヤー(NS) (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21020402H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>21020308H</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>21020401H</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>TTLS1190</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>21020502H</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>INS6841</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="16.83"/>
+    <col customWidth="1" max="4" min="4" width="34.54"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="8.140000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21020954T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>TTLS1190</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21020211H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>IID2641</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21011306H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>IID2641</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21020952T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>IINS2740</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21020953T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>VVS1821</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="7.48"/>
+    <col customWidth="1" max="4" min="4" width="20.79"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="8.140000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：4 曜日違い</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20113051T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011352T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１ (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20111206H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１ (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21020209H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1154,42 +1625,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="31.68" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="8.800000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="34.64999999999999" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="31.68"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="19.03"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0003 西濃     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1251,13 +1722,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1276,7 +1747,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1285,15 +1756,15 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q8991056</t>
+          <t>Q9000711</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/12納期土気出荷工場72受入担当：楠様</t>
+          <t>工場72受入担当：楠様</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1302,19 +1773,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,42 +1793,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.22" customWidth="1" min="3" max="3"/>
-    <col width="26.4" customWidth="1" min="4" max="4"/>
-    <col width="12.1" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="17.49" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="27.17"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="17.49"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1419,49 +1890,45 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>旭真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20120952T</t>
+          <t>20120153T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/12納期　土気出荷</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1469,49 +1936,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>旭真空</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
+          <t>ＭＥK (14KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20110502H</t>
+          <t>J21B2</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/12納期　土気出荷</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1519,32 +1982,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＴ－２１０Ｎトップ (15KG)</t>
+          <t>ＫＶ－３８アンダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20041453T52</t>
+          <t>20121651T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1553,11 +2016,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
+          <t>2/15納期　土気出荷</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -1565,49 +2028,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="8">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210212</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>鵜飼塗料商事</t>
+          <t>市光工業伊勢原</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>染料液ＲＨＳイエロー (14KG)</t>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21020850T</t>
+          <t>20122153T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>NO.12</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/12納期</t>
+          <t>2/15納期</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1615,378 +2074,106 @@
         <v>1</v>
       </c>
     </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>市光工業伊勢原</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20111910H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>トウプラス</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－７８２ＴＰＳ (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21020852T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>2/15納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.75" customWidth="1" min="3" max="3"/>
-    <col width="30.14" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="17.49" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20122306H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>20112702H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>K7028740</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21011452T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>2101221013</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期 根上様</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>20112402H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>1090000758-1</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210210</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>20112451T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>1090000758-2</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>2/12納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,6 +2187,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新潟運輸_通常" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="トール_通常" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ケイヒン_通常" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="西濃_通常" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,21 +66,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -90,17 +159,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -109,7 +178,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -120,17 +189,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -139,7 +208,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -150,17 +219,47 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -452,7 +551,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="29.48"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="11"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="14.85"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>木島工作所</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21020209H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20111251T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>2101221040</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期 根上様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21011452T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>2101221014</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/16納期 根上様</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -465,42 +828,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="31.68" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="19.03" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="7.48"/>
+    <col customWidth="1" max="4" min="4" width="20.79"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="7.040000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="31.78999999999999"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
+          <t>運送業者：U0001 トール     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -562,7 +925,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -573,352 +936,42 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>ＹＫＰ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21010751T</t>
+          <t>21011352T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q9003583</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>木島工作所</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＴＤＭ－１ (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21020209H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/16納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20111251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>2101221040</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/16納期 根上様</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21011452T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>2101221014</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2/16納期 根上様</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="1.87" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="7.48" customWidth="1" min="3" max="3"/>
-    <col width="16.17" customWidth="1" min="4" max="4"/>
-    <col width="6.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="7.040000000000001" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="31.78999999999999" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール     配送区分：1 通常</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ｶﾈﾊﾞﾝ</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>UHU-5315B（1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
+    </row>
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -960,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -976,7 +1029,7 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>UHU-5315A（1KG)</t>
+          <t>UHU-5315B（1KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
@@ -1002,15 +1055,57 @@
         <v>1</v>
       </c>
     </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ｶﾈﾊﾞﾝ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>UHU-5315A（1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>表面処理事業部　事業部長　三枝様宛</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1023,42 +1118,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.2" customWidth="1" min="1" max="1"/>
-    <col width="8.800000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.09" customWidth="1" min="3" max="3"/>
-    <col width="30.14" customWidth="1" min="4" max="4"/>
-    <col width="9.9" customWidth="1" min="5" max="5"/>
-    <col width="7.48" customWidth="1" min="6" max="6"/>
-    <col width="3.74" customWidth="1" min="7" max="7"/>
-    <col width="9.9" customWidth="1" min="8" max="8"/>
-    <col width="3.74" customWidth="1" min="9" max="9"/>
-    <col width="8.140000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.1" customWidth="1" min="11" max="11"/>
-    <col width="3.3" customWidth="1" min="12" max="12"/>
+    <col customWidth="1" max="1" min="1" width="2.2"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="30.14"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="9.9"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="8.140000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1">
+    <row customHeight="1" ht="23" r="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0007 ケイヒン     配送区分：1 通常</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1120,7 +1215,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="5">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1136,12 +1231,16 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21010802H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1150,7 +1249,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1162,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="6">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -1178,16 +1277,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21020210H</t>
+          <t>21020805H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1196,7 +1295,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1208,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="7">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -1224,16 +1323,16 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
+          <t>ＵＬ－１００リターダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21020405H</t>
+          <t>20111306H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1242,7 +1341,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1254,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="8">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -1270,16 +1369,16 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＵＬ－１００リターダー (15KG)</t>
+          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20111306H</t>
+          <t>21020303H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1288,7 +1387,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -1300,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="9">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
@@ -1316,16 +1415,16 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21010802H</t>
+          <t>21020210H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -1334,7 +1433,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1346,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10">
       <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
@@ -1362,16 +1461,16 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21020805H</t>
+          <t>21020405H</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
@@ -1380,7 +1479,7 @@
       </c>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -1392,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="11">
       <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
@@ -1408,16 +1507,16 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
+          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21020303H</t>
+          <t>20112604H</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
@@ -1426,7 +1525,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -1438,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="12">
       <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
@@ -1484,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="13">
       <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
@@ -1530,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="14">
       <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
@@ -1584,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="15">
       <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
@@ -1638,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="16">
       <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
@@ -1692,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="17">
       <c r="A17" s="1" t="n">
         <v>13</v>
       </c>
@@ -1747,13 +1846,181 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="1.87"/>
+    <col customWidth="1" max="2" min="2" width="8.800000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.09"/>
+    <col customWidth="1" max="4" min="4" width="31.68"/>
+    <col customWidth="1" max="5" min="5" width="9.9"/>
+    <col customWidth="1" max="6" min="6" width="7.48"/>
+    <col customWidth="1" max="7" min="7" width="3.74"/>
+    <col customWidth="1" max="8" min="8" width="8.800000000000001"/>
+    <col customWidth="1" max="9" min="9" width="3.74"/>
+    <col customWidth="1" max="10" min="10" width="19.03"/>
+    <col customWidth="1" max="11" min="11" width="1.1"/>
+    <col customWidth="1" max="12" min="12" width="3.3"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃     配送区分：1 通常</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21010751T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9003583</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1767,6 +2034,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出Y" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -529,14 +529,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="30.02999999999999" customWidth="1" min="4" max="4"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="15.4" customWidth="1" min="10" max="10"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -558,7 +558,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -630,39 +630,43 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>木島工作所</t>
+          <t>スタンレー浜松</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＴＤＭ－１ (15KG)</t>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020209H</t>
+          <t>21010751T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9006523</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/16納期</t>
+          <t>工場72受入担当：楠様</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -676,43 +680,39 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20111251T</t>
+          <t>21012552T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>2101221040</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/16納期 根上様</t>
+          <t>2/17納期</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -726,43 +726,39 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21012051T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>2101221014</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/16納期 根上様</t>
+          <t>2/17納期</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -793,12 +789,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="28.38" customWidth="1" min="4" max="4"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="28.82" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="10.45" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -822,7 +818,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -894,50 +890,42 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>イイノエンター</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ Ａ　(UN/17KG)</t>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020451T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>H111P0375</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/16納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -948,50 +936,42 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>イイノエンター</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ Ａ　(UN/17KG)</t>
+          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21020452T</t>
+          <t>20121603H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>H111P0375</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/16納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1002,50 +982,42 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>イイノエンター</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ Ｂ　(UN/17KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21020851T</t>
+          <t>20120153T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>H111P0375</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/16納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>2/18納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
@@ -1056,50 +1028,42 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>イイノエンター</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ Ｂ　(UN/17KG)</t>
+          <t>ＦＧ－３０００アンダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21020951T</t>
+          <t>20120753T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>H111P0375</t>
-        </is>
-      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/16納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>2/18納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1112,6 +1076,580 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="29.59" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＴ－２１０Ｎトップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20041453T52</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰ－３３ＮＰアンダー　(15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21010701H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１５０ＮＰアンダー (18㍑）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21012101H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20100555T53</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="29.15" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="13.75" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="21.01" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012053T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>1090000793-2</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/18納期 大阪より直送</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112402H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>1090000793-1</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/18納期 大阪より直送</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21012002H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>1090000793-1</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/18納期 大阪より直送</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1127,14 +1665,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="32.12" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1156,7 +1694,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1228,863 +1766,51 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210215</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>日本通運</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>Ｎ－４０４Ｋ２アンダー (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21010751T</t>
+          <t>21012707H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9003583</t>
+          <t>TTL1180</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>2/17納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="21.34" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="32.34" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ＹＫＰ</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21011352T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ADM-1（1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>UHU-5315B（1KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>UHU-5315A（1KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21010802H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21020805H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＬ－１００リターダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20111306H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21020303H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21020210H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21020405H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>20112604H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>20111910H</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>21011903H</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -783,6 +783,822 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21010802H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21020805H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＬ－１００リターダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20111306H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21020303H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21020210H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21020405H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>20112604H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>20111910H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21011903H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="21.34" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="32.34" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ＹＫＰ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21011352T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ADM-1（1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>表面処理事業部　事業部長　三枝様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>UHU-5315B（1KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>表面処理事業部　事業部長　三枝様宛</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>UHU-5315A（1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>表面処理事業部　事業部長　三枝様宛</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1111,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1279,822 +2095,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="21.34" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="32.34" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ＹＫＰ</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21011352T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ADM-1（1KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>UHU-5315B（1KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>UHU-5315A（1KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>表面処理事業部　事業部長　三枝様宛</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21010802H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21020805H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＬ－１００リターダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20111306H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21020303H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21020210H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21020405H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>20112604H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr"/>
-      <c r="I11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>20111910H</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>20210215</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>21011903H</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,11 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +178,66 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -494,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,11 +564,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="1" min="1" width="2.75"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
     <col customWidth="1" max="3" min="3" width="11.77"/>
-    <col customWidth="1" max="4" min="4" width="34.42999999999999"/>
-    <col customWidth="1" max="5" min="5" width="12.65"/>
+    <col customWidth="1" max="4" min="4" width="32.56"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
     <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
@@ -533,7 +595,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,35 +667,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210217</t>
+          <t>20210218</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２艶消ブラウン１１８ (15KG)</t>
+          <t>Ｘ－８０ＮＰアンダー(15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21021550T</t>
+          <t>21010631H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -642,7 +708,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="6">
@@ -651,35 +717,39 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210217</t>
+          <t>20210218</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２トップ (15KG)</t>
+          <t>ＢＰ－５０アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20100555T53</t>
+          <t>21012951T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -688,7 +758,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="7">
@@ -697,35 +767,39 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210217</t>
+          <t>20210218</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ヘイワテクノ</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＰＰ－３３ＮＰアンダー　(15KG)</t>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21010701H</t>
+          <t>20120952T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -734,7 +808,341 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20110502H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰ－４４ＮＰアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20072801H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21011902H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>美野里真空</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21011452T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>20101950T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21010750T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色　Ｃ－３０９ (15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21021750T</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -745,6 +1153,396 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
+    <col customWidth="1" max="4" min="4" width="34.09999999999999"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４（改２）アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21020501H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/19納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21020903H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21020902H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ・Ｓ　希釈用シンナー (４KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21021510H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>P-5プライマー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴＳ－０４アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21012651T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>2/19納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -861,7 +1659,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210217</t>
+          <t>20210218</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -880,7 +1678,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -889,11 +1687,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9009948</t>
+          <t>Q9019935</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -902,7 +1700,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +1710,317 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="14.3"/>
+    <col customWidth="1" max="4" min="4" width="28.16"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="11.55"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="15.4"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20121651T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011853T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20112702H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>K7088255</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21011452T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>2101221015</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2/19納期 根上様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ケイヒン_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
@@ -556,6 +556,172 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
+    <col customWidth="1" max="4" min="4" width="32.23"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="9.350000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="19.58"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210218</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v/>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21010751T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9019935</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -566,7 +732,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.75"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="11.77"/>
+    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
     <col customWidth="1" max="4" min="4" width="32.56"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
@@ -670,10 +836,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C5" s="1" t="n">
+        <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
@@ -720,10 +884,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C6" s="1" t="n">
+        <v/>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -770,10 +932,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C7" s="1" t="n">
+        <v/>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -820,10 +980,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C8" s="1" t="n">
+        <v/>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
@@ -870,10 +1028,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C9" s="1" t="n">
+        <v/>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
@@ -920,10 +1076,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
+      <c r="C10" s="1" t="n">
+        <v/>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
@@ -970,10 +1124,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>美野里真空</t>
-        </is>
+      <c r="C11" s="1" t="n">
+        <v/>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -1016,10 +1168,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>新正加工</t>
-        </is>
+      <c r="C12" s="1" t="n">
+        <v/>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -1062,10 +1212,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>新正加工</t>
-        </is>
+      <c r="C13" s="1" t="n">
+        <v/>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
@@ -1108,10 +1256,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>新正加工</t>
-        </is>
+      <c r="C14" s="1" t="n">
+        <v/>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
@@ -1152,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1272,10 +1418,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C5" s="1" t="n">
+        <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
@@ -1318,10 +1462,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C6" s="1" t="n">
+        <v/>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -1364,10 +1506,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C7" s="1" t="n">
+        <v/>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
@@ -1410,10 +1550,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C8" s="1" t="n">
+        <v/>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
@@ -1456,10 +1594,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C9" s="1" t="n">
+        <v/>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
@@ -1498,10 +1634,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
+      <c r="C10" s="1" t="n">
+        <v/>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
@@ -1532,174 +1666,6 @@
       </c>
       <c r="K10" s="1" t="inlineStr"/>
       <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="13.64"/>
-    <col customWidth="1" max="4" min="4" width="32.23"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="9.350000000000001"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="19.58"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー浜松</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21010751T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q9019935</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1830,10 +1796,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
+      <c r="C5" s="1" t="n">
+        <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
@@ -1876,10 +1840,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
+      <c r="C6" s="1" t="n">
+        <v/>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
@@ -1972,10 +1934,8 @@
           <t>20210218</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
+      <c r="C8" s="1" t="n">
+        <v/>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,11 +7,14 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ケイヒン_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="トール_通常_輸出Y" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ケイヒン_通常_輸出Y" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -238,6 +241,96 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -566,14 +659,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.42"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
-    <col customWidth="1" max="4" min="4" width="32.23"/>
+    <col customWidth="1" max="3" min="3" width="19.25"/>
+    <col customWidth="1" max="4" min="4" width="33.55"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="9.350000000000001"/>
+    <col customWidth="1" max="8" min="8" width="8.25"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="19.58"/>
+    <col customWidth="1" max="10" min="10" width="7.15"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
     <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
@@ -595,7 +688,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -667,41 +760,43 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>西鉄　成田梱包営業所</t>
+        </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21010751T</t>
+          <t>21021603H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9019935</t>
+          <t>FG10099</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -717,6 +812,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
+    <col customWidth="1" max="4" min="4" width="26.95"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４８トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012952T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３０５アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021551T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４５ トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20120153T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.9"/>
+    <col customWidth="1" max="4" min="4" width="25.08"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="18.04"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21011853T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011352T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/24納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -732,14 +1293,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.75"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
-    <col customWidth="1" max="4" min="4" width="32.56"/>
+    <col customWidth="1" max="3" min="3" width="13.64"/>
+    <col customWidth="1" max="4" min="4" width="33.77"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="8" min="8" width="11.55"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="7.15"/>
+    <col customWidth="1" max="10" min="10" width="31.02"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
     <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
@@ -761,7 +1322,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -833,41 +1394,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>柏真空</t>
+        </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｘ－８０ＮＰアンダー(15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21010631H</t>
-        </is>
-      </c>
+          <t>染料液レッドLQ（0.1KG）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>石井社長宛</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -881,37 +1436,31 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>相模塗装</t>
+        </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21012951T</t>
-        </is>
-      </c>
+          <t>ＢＳ－４２１ Ｂ液 (4KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -920,7 +1469,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="7">
@@ -929,37 +1478,31 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>相模塗装</t>
+        </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>20120952T</t>
-        </is>
-      </c>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -968,7 +1511,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="18" r="8">
@@ -977,41 +1520,39 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20110502H</t>
+          <t>20111251T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期　土気出荷　一号館NO.80</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1025,37 +1566,39 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー岡崎</t>
+        </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＰＰ－４４ＮＰアンダー (15KG)</t>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>20072801H</t>
+          <t>21011251T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>NO.3</t>
+          <t>K7112342</t>
         </is>
       </c>
       <c r="I9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1073,41 +1616,43 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21011902H</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>NO.3</t>
+          <t>2101221016</t>
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期 根上様</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr"/>
@@ -1121,37 +1666,43 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>20091851T</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>2101221039</t>
+        </is>
+      </c>
       <c r="I11" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期 根上様</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr"/>
@@ -1165,37 +1716,43 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>20101950T</t>
+          <t>20112702H</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>2101221019</t>
+        </is>
+      </c>
       <c r="I12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期 根上様</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr"/>
@@ -1209,37 +1766,43 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>21010750T</t>
+          <t>21012001H</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>2101221019</t>
+        </is>
+      </c>
       <c r="I13" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期 根上様</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr"/>
@@ -1253,24 +1816,26 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>市光工業伊勢原</t>
+        </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２金色　Ｃ－３０９ (15KG)</t>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>21021750T</t>
+          <t>21020152T</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
@@ -1279,11 +1844,11 @@
       </c>
       <c r="H14" s="1" t="inlineStr"/>
       <c r="I14" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr"/>
@@ -1298,13 +1863,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,12 +1879,230 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.42"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
-    <col customWidth="1" max="4" min="4" width="34.09999999999999"/>
+    <col customWidth="1" max="3" min="3" width="13.64"/>
+    <col customWidth="1" max="4" min="4" width="32.23"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.350000000000001"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="19.58"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21010751T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9021409</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21010751T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>Q9021263</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="13.64"/>
+    <col customWidth="1" max="4" min="4" width="33.55"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="12.65"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
     <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
@@ -1343,7 +2126,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1415,40 +2198,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>日本通運　成田</t>
+        </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｎ－４０４（改２）アンダー (15KG)</t>
+          <t>Ｋ－７０６ＣＬ(改) Ｂ液 (UN/17KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020501H</t>
+          <t>21020904H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>HEC-INK20K2</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/19納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1459,40 +2252,50 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>西鉄物流</t>
+        </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+          <t>ＰＰ反射板用Ｂタイプ (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21020903H</t>
+          <t>21020901H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>TTW2691</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1503,169 +2306,51 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>西鉄物流</t>
+        </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+          <t>ＰＰ反射板用Ｃタイプ (UN/15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21020902H</t>
+          <t>21021101H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTW2691</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ａ・Ｓ　希釈用シンナー (４KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21021510H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>P-5プライマー　(1KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="10">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v/>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴＳ－０４アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21012651T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>2/19納期</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,14 +2377,14 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="2.42"/>
     <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="14.3"/>
-    <col customWidth="1" max="4" min="4" width="28.16"/>
+    <col customWidth="1" max="3" min="3" width="12.87"/>
+    <col customWidth="1" max="4" min="4" width="27.61"/>
     <col customWidth="1" max="5" min="5" width="10.45"/>
     <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
     <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="11.55"/>
+    <col customWidth="1" max="8" min="8" width="8.25"/>
     <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="15.4"/>
+    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
     <col customWidth="1" max="11" min="11" width="1.65"/>
     <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
   </cols>
@@ -1721,7 +2406,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1793,40 +2478,46 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20121651T</t>
-        </is>
-      </c>
+          <t>ＰＴ－０４トップ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1837,40 +2528,50 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
+          <t>ＡＡＳ№１ Ａ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21011853T</t>
+          <t>21021002H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1881,46 +2582,50 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
+          <t>20210219</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
+          <t>名港海運西2区</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＡＡＳ№１ Ｂ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20112702H</t>
+          <t>21021102H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>K7088255</t>
+          <t>TTL1220</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
@@ -1931,44 +2636,50 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210218</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v/>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21020213H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>2101221015</t>
+          <t>TTL1220</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/19納期 根上様</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1980,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,14 +7,13 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="西濃_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="新潟運輸_通常_輸出Y" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="トール_通常_輸出Y" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ケイヒン_通常_輸出Y" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -301,36 +300,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2400300" cy="595312"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -688,7 +657,7 @@
     <row customHeight="1" ht="18" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1073,217 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.9"/>
-    <col customWidth="1" max="4" min="4" width="25.08"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="18.04"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21011853T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>2/22納期　土気出荷</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>東海化成</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21011352T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,7 +1208,11 @@
           <t>ＢＳ－４２１ Ｂ液 (4KG)</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20110503H</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
         <v>3</v>
       </c>
@@ -1491,7 +1254,11 @@
           <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21020152T</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n">
         <v>4</v>
       </c>
@@ -1525,34 +1292,34 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>スタンレー秦野</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
+          <t>ＫＶ－３８アンダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20111251T</t>
+          <t>21011853T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/22納期　土気出荷　一号館NO.80</t>
+          <t>2/22納期　土気出荷</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1571,38 +1338,34 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>スタンレー岡崎</t>
+          <t>スタンレー秦野</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21011251T</t>
+          <t>20111251T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>K7112342</t>
-        </is>
-      </c>
+      <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>2/22納期　土気出荷　一号館NO.80</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr"/>
@@ -1621,21 +1384,21 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>スタンレー岡崎</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21011251T</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
@@ -1644,15 +1407,15 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>2101221016</t>
+          <t>K7112342</t>
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2/22納期 根上様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr"/>
@@ -1676,16 +1439,16 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>20091851T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
@@ -1694,11 +1457,11 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>2101221039</t>
+          <t>2101221016</t>
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -1726,16 +1489,16 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>20112702H</t>
+          <t>20091851T</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
@@ -1744,7 +1507,7 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>2101221019</t>
+          <t>2101221039</t>
         </is>
       </c>
       <c r="I12" s="1" t="n">
@@ -1781,11 +1544,11 @@
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>21012001H</t>
+          <t>20112702H</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
@@ -1821,38 +1584,88 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>市光工業伊勢原</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>21020152T</t>
+          <t>21012001H</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>2101221019</t>
+        </is>
+      </c>
       <c r="I14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2/22納期</t>
+          <t>2/22納期 根上様</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr"/>
       <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>市光工業伊勢原</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>21020152T</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr"/>
+      <c r="L15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1863,13 +1676,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,6 +1885,386 @@
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21011352T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/24納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.42"/>
+    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
+    <col customWidth="1" max="3" min="3" width="12.87"/>
+    <col customWidth="1" max="4" min="4" width="27.61"/>
+    <col customWidth="1" max="5" min="5" width="10.45"/>
+    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
+    <col customWidth="1" max="7" min="7" width="4.29"/>
+    <col customWidth="1" max="8" min="8" width="8.25"/>
+    <col customWidth="1" max="9" min="9" width="4.29"/>
+    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
+    <col customWidth="1" max="11" min="11" width="1.65"/>
+    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="23" r="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＰＴ－０４トップ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21021552T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＡＡＳ№１ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021002H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＡＡＳ№１ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021102H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21020213H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>TTL1220</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>2/22納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2362,336 +2555,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="12.87"/>
-    <col customWidth="1" max="4" min="4" width="27.61"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="8.25"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="23" r="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>名港海運西2区</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＰＴ－０４トップ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>TTL1220</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>2/22納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>名港海運西2区</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＡＡＳ№１ Ａ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021002H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>TTL1220</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/22納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>名港海運西2区</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＡＡＳ№１ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021102H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTL1220</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/22納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210219</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>名港海運西2区</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21020213H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>TTL1220</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2/22納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="トール_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,16 +65,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -158,17 +158,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -188,17 +188,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -218,17 +218,17 @@
     <ext cx="2400300" cy="595312"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -533,42 +533,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.9"/>
-    <col customWidth="1" max="4" min="4" width="28.82"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -630,7 +630,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -641,30 +641,30 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>光輝社焼津</t>
+          <t>スタンレー浜松</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21010751T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -687,21 +687,21 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－１００ シンナー (15KG)</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21011805H</t>
+          <t>21012552T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -710,11 +710,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>2/24納期</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -733,21 +733,21 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>20120753T</t>
+          <t>21021251T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -756,11 +756,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>2/24納期</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -779,21 +779,21 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20120153T</t>
+          <t>21012051T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -802,11 +802,11 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>2/24納期</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="9">
+    <row r="9" ht="18" customHeight="1">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
@@ -825,21 +825,21 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21021652T</t>
+          <t>21021152T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -848,11 +848,11 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>2/24納期</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr"/>
@@ -861,14 +861,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -881,42 +881,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="14.63"/>
-    <col customWidth="1" max="4" min="4" width="32.23"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="7.590000000000001"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="28.82" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="4">
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -978,7 +978,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -989,30 +989,30 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21010751T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -1035,21 +1035,21 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21012552T</t>
+          <t>20120153T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/24納期</t>
+          <t>2/25納期</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -1081,21 +1081,21 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021251T</t>
+          <t>21021652T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1104,11 +1104,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/24納期</t>
+          <t>2/25納期</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="8">
+    <row r="8" ht="18" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
@@ -1127,21 +1127,21 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>Ｕ－１００ シンナー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21012051T</t>
+          <t>21011805H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/24納期</t>
+          <t>2/25納期</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="9">
+    <row r="9" ht="18" customHeight="1">
       <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
@@ -1173,21 +1173,21 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>新潟三桂</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＦＧ－３０００アンダー (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21021152T</t>
+          <t>20120753T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -1196,11 +1196,11 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2/24納期</t>
+          <t>2/25納期</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr"/>
@@ -1209,14 +1209,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1229,42 +1229,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.42"/>
-    <col customWidth="1" max="2" min="2" width="9.350000000000001"/>
-    <col customWidth="1" max="3" min="3" width="8.030000000000001"/>
-    <col customWidth="1" max="4" min="4" width="34.21"/>
-    <col customWidth="1" max="5" min="5" width="10.45"/>
-    <col customWidth="1" max="6" min="6" width="8.030000000000001"/>
-    <col customWidth="1" max="7" min="7" width="4.29"/>
-    <col customWidth="1" max="8" min="8" width="8.25"/>
-    <col customWidth="1" max="9" min="9" width="4.29"/>
-    <col customWidth="1" max="10" min="10" width="8.690000000000001"/>
-    <col customWidth="1" max="11" min="11" width="1.65"/>
-    <col customWidth="1" max="12" min="12" width="3.850000000000001"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="34.21" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1">
+    <row r="1" ht="23" customHeight="1">
       <c r="E1" t="inlineStr">
         <is>
           <t>出荷実績照会</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>出荷工場：@0002 土気工場</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="3">
+    <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4">
+    <row r="4" ht="18" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>行</t>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="5">
+    <row r="5" ht="18" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6">
+    <row r="6" ht="18" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="7">
+    <row r="7" ht="18" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
@@ -1489,9 +1489,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.8" footer="0.5" header="0.5" left="0.2" right="0.2" top="0.8"/>
-  <pageSetup fitToHeight="0" fitToWidth="1" orientation="landscape" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1509,6 +1509,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,14 +535,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
     <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -636,7 +636,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -655,208 +655,28 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9037763</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>工場72受入担当：楠様</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21012552T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21012051T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021152T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -873,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,13 +704,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="28.82" customWidth="1" min="4" max="4"/>
+    <col width="36.3" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -984,22 +804,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>光輝社焼津</t>
+          <t>海野技研</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
+          <t>ＳＴ－３２ＮＰＡ（改）銅色５５ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21022450T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -1021,7 +841,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1030,26 +850,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>川口真空</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20120153T</t>
+          <t>21011551T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1058,11 +878,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1076,26 +896,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>川口真空</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021652T</t>
+          <t>21011903H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1104,11 +924,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
@@ -1122,26 +942,26 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－１００ シンナー (15KG)</t>
+          <t>ＫＶ－３８アンダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21011805H</t>
+          <t>21011853T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1150,11 +970,11 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1168,26 +988,26 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
+          <t>20210226</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>新潟三桂</t>
+          <t>光輝社焼津</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>20120753T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -1196,15 +1016,61 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2/25納期</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210226</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21011301H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1221,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,13 +1098,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="34.21" customWidth="1" min="4" max="4"/>
+    <col width="33.55" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.690000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1260,7 +1126,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1198,20 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>日本通運</t>
-        </is>
+          <t>20210226</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ Ｂ液 (UN/17KG)</t>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020905H</t>
+          <t>21020503H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -1360,7 +1224,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>TTLG16</t>
+          <t>FG10092</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
@@ -1368,123 +1232,11 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>日本通運</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21020803H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>TTL1230</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210222</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>日本通運</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ｓ(改) Ｂ液(ｱﾙﾐ）(UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21020804H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTL1230</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>2/24納期</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -207,6 +210,96 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -525,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,14 +628,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="32.56" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="9.790000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -564,7 +657,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -636,48 +729,94 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210226</t>
+          <t>20201222</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＳＴ－３２金色　Ｅ－０１４ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21010751T</t>
+          <t>20122150T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9037763</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
+          <t>12/23納期</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ＹＫＰ</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20113051T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/24納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -688,400 +827,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="36.3" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>海野技研</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴ－３２ＮＰＡ（改）銅色５５ (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21022450T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>川口真空</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21011551T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>川口真空</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21011903H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21011853T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21011452T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>三栄産業</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21011301H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,13 +843,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="33.55" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="13.09" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="18.37" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1126,7 +871,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1198,45 +943,345 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210226</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v/>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
+          <t>ＭＥK (14KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21020503H</t>
+          <t>X20B1</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>FG10092</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>12/24納期 土気出荷</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="34.09999999999999" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="19.14" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20120802H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20111053T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４（改２）アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20121604H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ・Ｓ　希釈用シンナー (４KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121708H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　本社出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,6 +1293,1570 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.71" customWidth="1" min="3" max="3"/>
+    <col width="35.86" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="9.790000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>名港海運(株)西二区</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＧ－４０００ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20121606H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>SSH0500</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＫＴ－３　Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20121502H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>TTLB320</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＰＴ－０４トップ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20121751T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTLB320</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－５６０ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20120108H05</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20121053T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>20121501H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ウレットＰ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>20120401H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>20121403H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０-Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>20120404H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－５６０Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>20120107H04</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－２４０Ｒ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>20120951T</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>ウレットＰ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>20120403H</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－２４０Ｒ BLUE TOP3 (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>20121051T</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０シンナー (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>20121608H</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>VVS7450</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－４０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>20120405H</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>20120752T</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＲ－１２０ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>20121601H</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>VVS4990</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="38.5" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ-４０-Ｔ２塗料 (1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20121707H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>K6659550</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷　西濃にて</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20112652T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>Q8874785</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷 工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>20111752T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>25620Z</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20111651T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>25616Z</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期　土気出荷</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="24.75" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="18.37" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>20112603H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20201222</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>20120802H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>12/23納期 土気出荷</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -207,6 +209,66 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -535,14 +597,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="26.51" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="18.15" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="17.38" customWidth="1" min="10" max="10"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -564,7 +626,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -636,39 +698,43 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ATE</t>
+          <t>スタンレー浜松</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ＶＰ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>ATE20210201-TOYO</t>
+          <t>Q9064108</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>土気出荷　引き取り</t>
+          <t>工場72受入担当：楠様</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -689,7 +755,275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012753T51</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１５０ＮＰアンダー (18㍑）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21012101H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21011301H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,14 +1033,14 @@
   <cols>
     <col width="2.75" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.3" customWidth="1" min="3" max="3"/>
-    <col width="39.26999999999999" customWidth="1" min="4" max="4"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="35.86" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.75" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -728,7 +1062,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -800,42 +1134,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４８金色Ｂ－６１９ (14KG)</t>
+          <t>ウレットＰ Ｂ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030450T</t>
+          <t>21030102H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -846,38 +1188,50 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２ＮＰＡ(改)トップ (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
+          <t>ＳＴＭ－３０-Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021501H</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -888,42 +1242,50 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２ＮＰＡ(改)金色Ｃ－９１６(15KG)</t>
+          <t>ＲＴ－２４０Ｒ BLUE TOP3 (UN/14KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21030450T</t>
+          <t>21021851T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
@@ -934,42 +1296,50 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－５ＮＰクリヤー (15KG)</t>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21021803H</t>
+          <t>21022204H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
@@ -980,20 +1350,24 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>カネコ真空</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２金色Ａ－２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr"/>
+          <t>Ｋ－５６０Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21030101H</t>
+        </is>
+      </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
@@ -1002,7 +1376,11 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
       <c r="I9" s="1" t="n">
         <v>2</v>
       </c>
@@ -1011,7 +1389,11 @@
           <t>noData</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr"/>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
@@ -1022,46 +1404,50 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ウレットＰ Ａ液 (UN/15KG)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21012001H</t>
+          <t>21021202H</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>K7211855</t>
+          <t>VVS5851</t>
         </is>
       </c>
       <c r="I10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr"/>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
@@ -1072,46 +1458,50 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>20091851T</t>
+          <t>21021752T</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>2102228703</t>
+          <t>VVS5851</t>
         </is>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
@@ -1122,46 +1512,50 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＲＴ－２４０Ｒ (UN/14KG)</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21021751T</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>2102228694</t>
+          <t>VVS5851</t>
         </is>
       </c>
       <c r="I12" s="1" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
@@ -1172,46 +1566,50 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>Ｋ－５６０ Ｂ (UN/15KG)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>21012001H</t>
+          <t>21021001H</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>2102228700</t>
+          <t>VVS5851</t>
         </is>
       </c>
       <c r="I13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
@@ -1222,26 +1620,22 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>高圧化工</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>21012002H</t>
-        </is>
-      </c>
+          <t>SR-001B (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
@@ -1250,18 +1644,22 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>1090000932-1</t>
+          <t>VVS2211</t>
         </is>
       </c>
       <c r="I14" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr"/>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
@@ -1272,26 +1670,26 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>高圧化工</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
+          <t>ＳＴＭ－４０－Ｔ１クリヤー (UN/15KG)</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>21012053T</t>
+          <t>21021502H</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
@@ -1300,19 +1698,235 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>1090000932-2</t>
+          <t>VVS5851</t>
         </is>
       </c>
       <c r="I15" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr"/>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>SR-001A (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>VVS2211</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>21021201H</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>21021852T</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＲ－１２０ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>21022402H</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>VVS5851</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,14 +1953,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.25" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1368,7 +1982,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1440,46 +2054,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210308</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>築港　名古屋</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＳＴＲ－１２０－ＶＣ (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21022252T</t>
+          <t>21030253T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9058388</t>
+          <t>FG10128</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1491,7 +2109,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.36" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＬ－４３０リターダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21011453T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011551T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21012951T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,14 +535,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.74" customWidth="1" min="3" max="3"/>
-    <col width="36.95999999999999" customWidth="1" min="4" max="4"/>
-    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="11.77" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -564,7 +564,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -636,50 +636,46 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＵ－１００ＨＮＶ Ａ２ (UN/15KG)</t>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030452T</t>
+          <t>20091851T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>TTLS2091</t>
+          <t>2102228704</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>根上様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -690,50 +686,46 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21022206H02</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>TTLS2091</t>
+          <t>2102228696</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>根上様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -744,267 +736,39 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>名港海運㈱西2区</t>
+          <t>スリードリーム</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030404H</t>
-        </is>
-      </c>
+          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>TTLS2091</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>池ノ谷社長宛</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＲ－１２０ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21022403H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>TTLS2091</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21030104H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>TTLS2091</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21030303H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>TTLS2091</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>名港海運㈱西2区</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ－１クリヤー(NS) (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21030403H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>TTLS2091</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1021,401 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="11.66" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Ｂタイプ反射板用塗料 (4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21030206H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030205H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>カネコ真空</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ｋ－１６４ＮＰアンダー(15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21020802H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21011853T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>20111251T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>一号館NO.80</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210312</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21011852T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>一号館NO.80</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,7 +896,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1545,7 +915,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1554,15 +924,179 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9076114</t>
+          <t>Q9077935</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８ＢＳアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21022453T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1576,26 +1110,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210312</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>東海化成</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+          <t>ＰＴ－０４トップ  (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21011352T</t>
+          <t>21030851T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1604,7 +1138,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1613,6 +1147,244 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21022251T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－９０１アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21022452T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２５３ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21022307H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>B8774837</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>B8774810</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,14 +535,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="11.77" customWidth="1" min="10" max="10"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -564,7 +564,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -641,38 +641,34 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+          <t>ＵＶ－３８ＢＳアンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20091851T</t>
+          <t>21022453T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>2102228704</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -691,38 +687,34 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＵＶ－２５３ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21022307H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>2102228696</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -741,17 +733,21 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
+          <t>ＵＶ－９０１アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21022452T</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -760,15 +756,207 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>池ノ谷社長宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21022251T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ニシイ</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＰＴ－０４トップ  (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21030851T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>B8774810</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>B8774837</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -953,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,14 +1151,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.25" customWidth="1" min="3" max="3"/>
-    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="31.9" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="11.77" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -992,7 +1180,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1069,34 +1257,38 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８ＢＳアンダー (15KG)</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21022453T</t>
+          <t>21011452T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>2102228696</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>根上様宛</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -1115,34 +1307,38 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>南部化成　裾野</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＰＴ－０４トップ  (15KG)</t>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21030851T</t>
+          <t>20091851T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>2102228704</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>根上様宛</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1161,21 +1357,17 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>スリードリーム</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21022251T</t>
-        </is>
-      </c>
+          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1184,207 +1376,15 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>池ノ谷社長宛</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－９０１アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21022452T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２５３ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21022307H</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21022252T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>B8774837</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21011251T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>B8774810</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -207,6 +208,36 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -525,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,14 +566,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.25" customWidth="1" min="3" max="3"/>
-    <col width="33.77" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="19.58" customWidth="1" min="3" max="3"/>
+    <col width="27.61" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="18.48" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -564,7 +595,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -636,35 +667,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>サンプル依頼先(本社)</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８ＢＳアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21022453T</t>
-        </is>
-      </c>
+          <t>導電性塗料試作品NO.1 (200G)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>㈱小糸製作所 芹澤様</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -673,7 +704,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -682,35 +713,35 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>サンプル依頼先(本社)</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２５３ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21022307H</t>
-        </is>
-      </c>
+          <t>導電性塗料用シンナー (70G)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>㈱小糸製作所 芹澤様</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -719,245 +750,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－９０１アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21022452T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21022251T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＰＴ－０４トップ  (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21030851T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21011251T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>B8774810</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210315</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21022252T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>B8774837</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +766,401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="11.66" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21030206H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21030205H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>カネコ真空</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１６４ＮＰアンダー(15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21020802H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21011853T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20111251T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>一号館NO.80</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21011852T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>一号館NO.80</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1271,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1103,7 +1290,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1112,11 +1299,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9077935</t>
+          <t>Q9076114</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1125,6 +1312,52 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011352T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1135,13 +1368,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,14 +1384,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="31.9" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="14.74" customWidth="1" min="3" max="3"/>
+    <col width="36.95999999999999" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="11.77" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1180,7 +1413,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1252,46 +1485,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21011452T</t>
+          <t>21030104H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>2102228696</t>
+          <t>TTLS2091</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1302,46 +1539,50 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+          <t>ＳＴＲ－１２０ (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>20091851T</t>
+          <t>21022403H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>2102228704</t>
+          <t>TTLS2091</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1352,39 +1593,267 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210315</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>スリードリーム</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
+          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21022206H02</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTLS2091</t>
+        </is>
+      </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>池ノ谷社長宛</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030303H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>TTLS2091</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１クリヤー(NS) (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21030403H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>TTLS2091</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21030404H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>TTLS2091</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210312</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>名港海運㈱西2区</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21030452T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>TTLS2091</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1395,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +177,36 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -494,7 +525,447 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="32.34" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21011551T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21030152T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＬ－４３０リターダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21011453T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰ－５５３ (3) Ｂ液 (14KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20110903H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰ－５５３（改）Ａ液（１４ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21031153T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰ－５５３ (3) Ｃ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21030953T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210318</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21030251T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,13 +976,13 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="28.38" customWidth="1" min="4" max="4"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -533,7 +1004,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -605,160 +1076,48 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210317</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>築港横浜　第２</t>
+          <t>スタンレー浜松</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌ (UN/16KG)</t>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030852T</t>
+          <t>21022252T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>FB10182</t>
+          <t>Q9091121</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210317</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２ＴＮＦ (UN/17KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21010552T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>FB00965</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210317</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>築港横浜　第２</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２ＴＮＦ (UN/17KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030952T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>FB10182</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +1127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -784,8 +1143,8 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="26.18" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -813,7 +1172,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -885,26 +1244,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210317</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ (14KG)</t>
+          <t>ＵＶ－３８２ トップ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>20091851T</t>
+          <t>21021153T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -913,7 +1272,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -931,35 +1290,39 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210317</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－１６０ＨＮＶトップ (14KG)</t>
+          <t>ＳＴ－１０Ｍトップ (16㍑)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021151T</t>
+          <t>21020801H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>NO.12</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -968,7 +1331,7 @@
       </c>
       <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -207,6 +209,66 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -525,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,14 +595,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="32.34" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="14.3" customWidth="1" min="3" max="3"/>
+    <col width="37.18" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -636,7 +698,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -651,11 +713,11 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21011551T</t>
+          <t>21030152T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -664,7 +726,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -682,7 +744,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -692,16 +754,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+          <t>ＵＬ－４３０リターダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21030152T</t>
+          <t>21011453T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -710,7 +772,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -728,26 +790,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>川口真空</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＬ－４３０リターダー (15KG)</t>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21011453T</t>
+          <t>21030152T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -756,7 +818,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -765,7 +827,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -774,22 +836,22 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>ヘイワテクノ</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＰＰ－５５３ (3) Ｂ液 (14KG)</t>
+          <t>ＳＴ－３２ＮＰＡ(改)トップ (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>20110903H</t>
+          <t>21031055T53</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
@@ -820,26 +882,26 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>ヘイワテクノ</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＰＰ－５５３（改）Ａ液（１４ＫＧ）</t>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21031153T</t>
+          <t>21022501H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -848,7 +910,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -866,24 +928,20 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>ヘイワテクノ</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ＰＰ－５５３ (3) Ｃ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21030953T</t>
-        </is>
-      </c>
+          <t>ST-32NPA（改）仮金色1029C1（15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
@@ -912,7 +970,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -922,16 +980,16 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21030251T</t>
+          <t>21012104H</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
@@ -940,7 +998,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -949,7 +1007,141 @@
       </c>
       <c r="K11" s="1" t="inlineStr"/>
       <c r="L11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ST-32NPA（改）仮金色1029B（15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ST-32NPA（改）仮クローム1029F（15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21012001H</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>K7353420</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,14 +1167,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="32.56" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1004,7 +1196,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1268,22 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＲＴＳ－０４アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21022252T</t>
+          <t>21030451T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -1099,25 +1291,159 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q9091121</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031201H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｎ－４０４（改２）アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21031004H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030803H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1143,8 +1469,218 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9101321</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>UV-382VB-059 (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
+    <col width="24.31" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -1244,7 +1780,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1254,25 +1790,29 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２ トップ (15KG)</t>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21021153T</t>
+          <t>20120952T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1281,7 +1821,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1290,7 +1830,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210318</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1300,16 +1840,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－１０Ｍトップ (16㍑)</t>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21020801H</t>
+          <t>20120801H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1318,11 +1858,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>NO.12</t>
+          <t>NO.3</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1341,7 +1881,935 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="35.86" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21031651T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－２４０Ｒ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031552T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>VVS0181</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｐ４プライマー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21031104H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>VNS21A-P</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０-Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030901H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－５６０Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21030105H01</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＲ－１２０ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21031002H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－５６０ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21031001H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21030453T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－４０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21030902H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21031103H</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－４０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>21031603H</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>VVS0181</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－２４０Ｒ (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>21031551T</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>ウレットＰ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>21030106H02</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>ウレットＰ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>21021202H</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>20210324</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－２４０Ｒ BLUE TOP3 (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>21031151T</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>VVS7911</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出Y" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +179,96 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -494,7 +587,669 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.49" customWidth="1" min="3" max="3"/>
+    <col width="37.18" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２クローム１３ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21033050T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21030252T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>三栄産業</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21030402H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030402H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ST-32NPA（改）仮クローム1029F（15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ST-32NPA（改）仮金色1029B（15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２ＮＰＡ(改)トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21031055T53</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－５ＮＰ艶消アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21022501H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21030251T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ST-32NPA（改）仮金色1029C1（15KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr"/>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>日南ｸﾘｴｲﾃｨﾌﾞﾍﾞｰｽ</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３６１　アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>21011881T</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr"/>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr"/>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>21030252T</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>2103235460</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr"/>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +1259,475 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="27.72" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｘ－８０ＮＰアンダー(15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21030908H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１６４ＮＰアンダー(15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21020802H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４８トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21030351T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20120801H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>20120952T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－３５Ｍ トップ (16KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21030801H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21030251T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
     <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
@@ -605,7 +1828,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -624,7 +1847,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -633,11 +1856,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9098177</t>
+          <t>Q9119646</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -646,106 +1869,6 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21021152T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>81311R</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>81307R</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -756,13 +1879,779 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.71" customWidth="1" min="3" max="3"/>
+    <col width="32.12" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>名港海運(株)西二区</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－１３０ (UN/13KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21031052T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>SH0531</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>名港海運(株)西二区</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－１３０ (UN/13KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031152T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>SH0531</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－７０６ＣＬ Ａ液 (UN/14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21031801H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＰＴ－０４トップ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030854T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＵＬ－１００リターダー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21032204H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＫＨＵ－３（改３）Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21031701H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>TTL3041</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＡＡＳ№１ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21032202H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21032205H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＰＰＲ－８２（３） Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21032203H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ＫＨＵ－３（改３）Ｂ液 (UN/19KG)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21031703H</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>TTL3041</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ＦＫ－１３Ｓ(改) Ａ液 (UN/13KG)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>21032301H</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>TTL3051</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>20210401</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>名港海運西2区</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>ＡＡＳ№１ Ａ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>21032201H</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>TTL3011</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,12 +2661,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="30.36" customWidth="1" min="4" max="4"/>
+    <col width="18.04" customWidth="1" min="3" max="3"/>
+    <col width="30.25" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.75" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -801,7 +2690,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -873,42 +2762,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>川口真空</t>
+          <t>近鉄ｺｽﾓｽ　成田物流</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+          <t>ＵＶ－５０５Ｋ２　Ｂ (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21030152T</t>
+          <t>21032352T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>RRU0261</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -919,231 +2816,51 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>相模塗装</t>
+          <t>近鉄ｺｽﾓｽ　成田物流</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
+          <t>ＵＶ－５０５Ｋ２　Ａ (UN/15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21030352T</t>
+          <t>21032554T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>RRU0261</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ヘイワテクノ</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21021651T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021652T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21012002H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>1090001022-1</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +179,96 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -504,6 +597,1340 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="6.16" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012001H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>2103235467</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21021151T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>2103235470</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21030252T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>2103235461</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="36.95999999999999" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21031205H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>INS2001</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－１０クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21032403H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>INS2001</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ２ クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21032401H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>INS1551</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21032501H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>INS2001</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＲ－００１ Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21032503H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>INS2001</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21032552T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>INS1551</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21032402H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>INS1551</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>鵜飼塗料商事</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２ トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21032452T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.3</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>B9003494</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>B9003524</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="28.82" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21030352T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＲＣ－２０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21032303H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４５ トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021652T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>20121603H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="14.63" customWidth="1" min="3" max="3"/>
     <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
@@ -605,7 +2032,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210405</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -624,7 +2051,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -633,11 +2060,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9098177</t>
+          <t>Q9128378</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -646,7 +2073,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -655,7 +2082,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210405</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -665,16 +2092,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021251T</t>
+          <t>21021152T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -683,15 +2110,15 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>81307R</t>
+          <t>50907Z</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>佐藤様</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -705,7 +2132,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210405</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -720,11 +2147,11 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021152T</t>
+          <t>21032451T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -733,19 +2160,115 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>81311R</t>
+          <t>50907Z</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>佐藤様</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21021251T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>50902Z</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>佐藤様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210405</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ＹＫＰ</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１０ (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21021206H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -756,405 +2279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="30.36" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.75" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>川口真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21030152T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>相模塗装</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030352T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ヘイワテクノ</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21021652T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021651T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21012002H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>1090001022-1</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -753,12 +753,12 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21021651T</t>
+          <t>21021652T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
@@ -799,12 +799,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
+          <t>ＦＧ－３０００アンダー (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21021652T</t>
+          <t>21021651T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021152T</t>
+          <t>21021251T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>81311R</t>
+          <t>81307R</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021251T</t>
+          <t>21021152T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>81307R</t>
+          <t>81311R</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,9 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -176,6 +178,66 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -494,404 +556,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="30.36" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.75" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>川口真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21030152T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>相模塗装</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３３０ シンナー (14KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030352T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>ヘイワテクノ</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＢＰ－５０アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21030251T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21021652T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>新潟三桂</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＦＧ－３０００アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21021651T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210323</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21012002H</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>1090001022-1</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1003,7 +667,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210419</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1022,7 +686,7 @@
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1031,11 +695,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9098177</t>
+          <t>Q9168078</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1044,7 +708,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -1053,7 +717,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210419</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1063,12 +727,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21021251T</t>
+          <t>21032451T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -1081,7 +745,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>81307R</t>
+          <t>50909Z</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -1089,7 +753,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>佐藤様</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -1103,7 +767,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210419</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1113,12 +777,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21021152T</t>
+          <t>21030853T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -1131,7 +795,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>81311R</t>
+          <t>50904Z</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
@@ -1139,11 +803,179 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>佐藤様</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.3" customWidth="1" min="3" max="3"/>
+    <col width="26.62" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012001H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>K7563050</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1155,6 +987,814 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>B9003532</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>B9003516</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21040151T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＬ－４３０リターダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21040152T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－７０６ＣＬ Ａ液 (14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21040802H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－７０６ＣＬ(改) Ｃ液 (4KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21040804H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21041203H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21041204H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＣタイプＰＰ反射板用塗料 (4KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21040702H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21012001H</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>2103235469</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21030252T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>2103235465</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>21021151T</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>2103235472</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr"/>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -556,6 +556,174 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.3" customWidth="1" min="3" max="3"/>
+    <col width="26.62" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ｻｶｯｸ㈱本社工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21012001H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>K7563050</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -727,12 +895,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21032451T</t>
+          <t>21030853T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -745,7 +913,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>50909Z</t>
+          <t>50904Z</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -777,12 +945,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21030853T</t>
+          <t>21032451T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -795,7 +963,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>50904Z</t>
+          <t>50909Z</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
@@ -808,174 +976,6 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.3" customWidth="1" min="3" max="3"/>
-    <col width="26.62" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21012001H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>K7563050</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -987,224 +987,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.25" customWidth="1" min="3" max="3"/>
-    <col width="33.77" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21022252T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>B9003532</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21011251T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>B9003516</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1331,16 +1113,16 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+          <t>ＵＬ－４３０リターダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21040151T</t>
+          <t>21040152T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1349,7 +1131,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1377,16 +1159,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＬ－４３０リターダー (15KG)</t>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21040152T</t>
+          <t>21040151T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1395,7 +1177,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1423,16 +1205,16 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ Ａ液 (14KG)</t>
+          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21040802H</t>
+          <t>21041203H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1441,7 +1223,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1469,16 +1251,16 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ(改) Ｃ液 (4KG)</t>
+          <t>Ｋ－７０６ＣＬ Ａ液 (14KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21040804H</t>
+          <t>21040802H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1487,7 +1269,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -1515,16 +1297,16 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+          <t>Ｂタイプ反射板用塗料 (4KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21041203H</t>
+          <t>21041204H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -1533,7 +1315,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1561,16 +1343,16 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+          <t>Ｋ－７０６ＣＬ(改) Ｃ液 (4KG)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21041204H</t>
+          <t>21040804H</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
@@ -1579,7 +1361,7 @@
       </c>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -1653,12 +1435,12 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>21012001H</t>
+          <t>21030252T</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
@@ -1671,7 +1453,7 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>2103235469</t>
+          <t>2103235465</t>
         </is>
       </c>
       <c r="I12" s="1" t="n">
@@ -1703,12 +1485,12 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>21030252T</t>
+          <t>21012001H</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
@@ -1721,7 +1503,7 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>2103235465</t>
+          <t>2103235469</t>
         </is>
       </c>
       <c r="I13" s="1" t="n">
@@ -1784,6 +1566,500 @@
       </c>
       <c r="K14" s="1" t="inlineStr"/>
       <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.58" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="23.65" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>UV-505K2-TH-1LQ (4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>UV-505K2-TH-1LQ後添EA0% (4KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>SV-3800M (4KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>UL-100ﾘﾀｰﾀﾞｰ (1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>SV-3800M-CNVC (4KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>SV-3800M-CNVC後添EA0% (4KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>光本様</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>B9003516</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210419</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21022252T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>B9003532</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_曜日違い_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_曜日違い_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -238,6 +239,36 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -566,14 +597,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.3" customWidth="1" min="3" max="3"/>
-    <col width="26.62" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="18.92" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="9.9" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -595,7 +626,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -667,43 +698,35 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ｻｶｯｸ㈱本社工場</t>
+          <t>新正加工</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21012001H</t>
-        </is>
-      </c>
+          <t>UT-210Nﾄｯﾌﾟ（1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>K7563050</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
+          <t>中島社長宛</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -724,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +786,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0003 西濃   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -835,7 +858,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -850,11 +873,11 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21022252T</t>
+          <t>21033051T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -863,11 +886,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9168078</t>
+          <t>Q9184995</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -885,7 +908,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -895,16 +918,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21030853T</t>
+          <t>21032451T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -913,11 +936,11 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>50904Z</t>
+          <t>50910Z</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -935,7 +958,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -950,11 +973,11 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21032451T</t>
+          <t>21040752T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -963,11 +986,11 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>50909Z</t>
+          <t>50910Z</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -976,6 +999,148 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21030853T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>50905Z</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>佐藤様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21031751T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１ (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21033007H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,14 +1165,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="32.56" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -1031,7 +1196,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1103,26 +1268,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＬ－４３０リターダー (15KG)</t>
+          <t>ＡＳ－８３ＮＰ№２アンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21040152T</t>
+          <t>21041302H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1131,7 +1296,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1149,26 +1314,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+          <t>ＫＳ－０４２　Ａ液　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21040151T</t>
+          <t>21041504H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1177,7 +1342,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1195,7 +1360,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1205,16 +1370,16 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
+          <t>ＫＳ－０４２　Ｂ液　（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21041203H</t>
+          <t>21041505H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1223,7 +1388,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1241,7 +1406,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1251,16 +1416,16 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ Ａ液 (14KG)</t>
+          <t>ＲＴＳ－０４アンダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21040802H</t>
+          <t>21040852T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1269,7 +1434,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -1287,7 +1452,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1297,16 +1462,16 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Ｂタイプ反射板用塗料 (4KG)</t>
+          <t>ＡタイプＰＰ反射板用塗料 (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21041204H</t>
+          <t>21041402H</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
@@ -1315,7 +1480,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
@@ -1333,7 +1498,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1343,16 +1508,16 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ(改) Ｃ液 (4KG)</t>
+          <t>ＵＶ－３０５アンダー (15KG)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21040804H</t>
+          <t>21033153T</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
@@ -1361,7 +1526,7 @@
       </c>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -1379,7 +1544,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -1389,16 +1554,16 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＣタイプＰＰ反射板用塗料 (4KG)</t>
+          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21040702H</t>
+          <t>21031501H</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
@@ -1407,7 +1572,7 @@
       </c>
       <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
@@ -1425,43 +1590,39 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
+          <t>Ｎ－４０４（改２）アンダー (15KG)</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>21030252T</t>
+          <t>21041210H</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>2103235465</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
       <c r="I12" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>根上様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr"/>
@@ -1475,97 +1636,43 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＲＴ－４５ トップ (14KG)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>21012001H</t>
+          <t>21032251T</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>2103235469</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
       <c r="I13" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>根上様</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr"/>
       <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>21021151T</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>2103235472</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>根上様</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1592,14 +1699,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.58" customWidth="1" min="3" max="3"/>
-    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="34.21" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="23.65" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1621,7 +1728,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：4 曜日違い  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1693,22 +1800,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210419</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>サンプル依頼先(本社)</t>
+          <t>日本通運</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>UV-505K2-TH-1LQ (4KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＰＲ－Ｓ(改) Ａ液(ｸﾘﾔｰ）(UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21041401H</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1717,349 +1828,23 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
+          <t>TTL3151</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>サンプル依頼先(本社)</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>UV-505K2-TH-1LQ後添EA0% (4KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>サンプル依頼先(本社)</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>SV-3800M (4KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>サンプル依頼先(本社)</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>UL-100ﾘﾀｰﾀﾞｰ (1KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>サンプル依頼先(本社)</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>SV-3800M-CNVC (4KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>サンプル依頼先(本社)</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>SV-3800M-CNVC後添EA0% (4KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>ﾅｶﾞｾｱﾌﾟﾘｹｰｼｮﾝﾜｰｸｼｮｯﾌﾟ</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>光本様</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21011251T</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>B9003516</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210419</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>21022252T</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>B9003532</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>安井様宛</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,6 +1856,546 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="11.66" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21030352T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３３０ シンナー (14KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21041453T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＭＥK (14KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>M21B3</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21031752T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>一号館NO.80</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー岡崎</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21011251T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>K7601084</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>新潟三桂</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－１００ シンナー (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21021103H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>新潟三桂</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＦＧ－３０００アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21032351T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>新潟三桂</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４５ トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21032251T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210423</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21021151T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>2103235473</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,13 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_土曜配達_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い_輸出N" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_曜日違い_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_土曜配達_輸出N" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
@@ -649,6 +649,568 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21033051T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Q9192513</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031751T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21031501H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>東海化成</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＴＤＭ－１ (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21033007H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="30.36" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="12.76" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>旭真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21041951T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21031752T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>一号館 NO.80</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー秦野</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21041252T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>一号館 NO.80</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -659,14 +1221,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.58" customWidth="1" min="3" max="3"/>
-    <col width="21.12" customWidth="1" min="4" max="4"/>
-    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
     <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -688,7 +1250,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：NoData NoData   配送区分：2 土曜配達  輸出：N</t>
+          <t>運送業者：U0003 西濃   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -765,30 +1327,38 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>サンプル依頼先(本社)</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr"/>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21040752T</t>
+        </is>
+      </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>83442A</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工藤様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
@@ -807,30 +1377,38 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>サンプル依頼先(本社)</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>JVS-003ﾄｯﾌﾟ（4KG）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr"/>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21030853T</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>83439A</t>
+        </is>
+      </c>
       <c r="I6" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>工藤様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr"/>
@@ -845,7 +1423,309 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21040201H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21041904H</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－３２０ シンナー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21021205H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－４８トップ (14KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21041251T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1021,9 +1901,13 @@
           <t>ＢＳ－４２１ Ｂ液 (4KG)</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21041906H</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -1032,7 +1916,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1060,12 +1944,16 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr"/>
+          <t>ＢＳ－４２１ Ｂ液 (4KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21042609H</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1074,7 +1962,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1097,17 +1985,21 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>サナック</t>
+          <t>市光工業伊勢原</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ＩＫ－５０（15KG）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr"/>
+          <t>ＢＳ－４２１Ａ－ＢＬＫ (4KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21022552T</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
@@ -1116,7 +2008,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
@@ -1135,615 +2027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21040201H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21041904H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Ｕ－３２０ シンナー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021205H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－４８トップ (14KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21041251T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー浜松</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21033051T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q9192513</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>東海化成</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21031751T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>東海化成</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21031501H</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>東海化成</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＴＤＭ－１ (15KG)</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21033007H</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2043,209 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="19.58" customWidth="1" min="3" max="3"/>
+    <col width="21.12" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：2 土曜配達  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>UL-500ﾘﾀｰﾀﾞｰ（500G)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>工藤様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>JVS-003ﾄｯﾌﾟ（4KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>工藤様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
     <col width="30.69" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
@@ -1788,7 +2274,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1865,21 +2351,21 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21040752T</t>
+          <t>20120801H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -1888,11 +2374,11 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>83442A</t>
+          <t>NO.12</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -1915,224 +2401,6 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21030853T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>83439A</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="26.18" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20120801H</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.12</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210507</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
           <t>鵜飼塗料商事</t>
         </is>
       </c>
@@ -2222,260 +2490,188 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="30.36" customWidth="1" min="4" max="4"/>
-    <col width="10.45" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="12.76" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：4 曜日違い  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>20210507</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>旭真空</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21041951T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21040650T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>20210507</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21031752T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>一号館 NO.80</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21042650T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>20210507</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>スタンレー秦野</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21041252T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>一号館 NO.80</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21041904H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210507</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１５０ＮＰアンダー (18㍑）</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21032903H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NoData_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出Y" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出N" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -207,6 +210,96 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -535,7 +628,1281 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.9" customWidth="1" min="3" max="3"/>
+    <col width="18.37" customWidth="1" min="4" max="4"/>
+    <col width="7.15" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：NoData NoData   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>ノグチ真空</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>運送費(5/24出荷分)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="30.25" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>日祥物流　成田</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５０５Ｋ２　Ａ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21051152T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>BBRN0241</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>日祥物流　成田</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５０５Ｋ２　Ｂ (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21051352T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>BBRN0241</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.58" customWidth="1" min="3" max="3"/>
+    <col width="31.9" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="19.25" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>サンプル依頼先(本社)</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>JVS-003ﾄｯﾌﾟ（4KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>生産管理課　滝田様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21042053T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>2104243027</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21040202H</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>2104243031</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21040202H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>2105245040</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21021151T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>2104243034</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>根上様</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>シェリー</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Ｕ－２００ シンナー (18㍑）</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21050701H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>シェリー</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Ｋ－１６４ＮＰアンダー(15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21051404H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>シェリー</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＰＣ－２０００アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21012154T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>シェリー</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21030951T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="10.45" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="21.12" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21033051T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>B9264735</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>福山合成㈱東広島工場</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21040753T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>B9264689</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>安井様宛</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>白水ＤＨＣ</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>STM-1クリヤー（10KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>品質管理課　中川課長宛</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>白水ＤＨＣ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>STM-1メタル（1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>品質管理課　中川課長宛</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>白水ＤＨＣ</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>STM-1シンナー（900G)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>品質管理課　中川課長宛</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
     <col width="32.23" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
@@ -636,47 +2003,193 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210524</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>ノグチ真空</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＵＶ－３８２ トップ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21033051T</t>
+          <t>21040751T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>Q9228763</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
+          <t>西濃運輸</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21033051T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>Q9240232</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21041552T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>83441A</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21040752T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>83442A</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -687,7 +2200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -704,7 +2217,7 @@
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
     <col width="8.030000000000001" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="24.31" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
@@ -732,7 +2245,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -804,26 +2317,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210524</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>新正加工</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－１５０ＮＰアンダー (18㍑）</t>
+          <t>ＢＳ－４２１ Ｂ液 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21032903H</t>
+          <t>21042605H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -832,7 +2345,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -850,26 +2363,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210524</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>新正加工</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＦＰＡ－３(改)２アンダー (18㍑)</t>
+          <t>ＰＴ－０４トップ  (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21041904H</t>
+          <t>21051253T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -878,7 +2391,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -896,22 +2409,22 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210519</t>
+          <t>20210524</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>新正加工</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+          <t>ＢＳ－４２１ Ａ液 (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21042650T</t>
+          <t>21040853T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -943,355 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.9" customWidth="1" min="3" max="3"/>
-    <col width="34.09999999999999" customWidth="1" min="4" max="4"/>
-    <col width="12.65" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－４５ トップ (14KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>21032251T</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr"/>
-      <c r="I5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＰＲ－Ａ・Ｓ　希釈用シンナー (４KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21051807H</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>伊坂藤枝</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>小糸ＧＨ－２００シンナー (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21021105H03</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>川口真空</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－２７０Ｍ アンダー（15kg）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21041951T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210519</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>光輝社焼津</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21030252T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr"/>
-      <c r="I9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr"/>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -556,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +566,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="34.20999999999999" customWidth="1" min="4" max="4"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="11.55" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -595,7 +595,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0003 西濃   配送区分：4 曜日違い  輸出：N</t>
         </is>
       </c>
     </row>
@@ -667,26 +667,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－５４２ アンダー (15KG)</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21042053T</t>
+          <t>21062851T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>旭真空</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３６１ＣＪアンダー（１５ＫＧ）</t>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21052452T</t>
+          <t>21072052T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -759,26 +759,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶＸ－Ｋ０２アンダー (15KG)</t>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21031501H</t>
+          <t>21071251T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -796,56 +796,6 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>南部化成　裾野</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21042053T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>2105247175</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>根上様</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -862,7 +812,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="29.15" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="13.75" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>伊坂藤枝</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＡＳ－６２１ Ｂ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21072806H</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>柏真空</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21060252T51</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>光輝社焼津</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＫＶ－３８アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21071951T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21052804H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>2107261277</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>根上様宛</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21072804H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>2107261277</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>根上様宛</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21071451T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21062903H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>1090001990-1</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21070553T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>1090001990-2</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,7 +1425,7 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -988,7 +1440,7 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21033051T</t>
+          <t>21052052T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
@@ -1001,7 +1453,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9269575</t>
+          <t>Q9400116</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
@@ -1017,171 +1469,49 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="2.42" customWidth="1" min="1" max="1"/>
-    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="11.77" customWidth="1" min="3" max="3"/>
-    <col width="26.95" customWidth="1" min="4" max="4"/>
-    <col width="12.65" customWidth="1" min="5" max="5"/>
-    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
-    <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
-    <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="7.15" customWidth="1" min="10" max="10"/>
-    <col width="1.65" customWidth="1" min="11" max="11"/>
-    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="23" customHeight="1">
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>出荷実績照会</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>出荷工場：@0002 土気工場</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>行</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>売上日</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>納入先名</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>品名</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>ﾛｯﾄNo.</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>売上数量</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>単位</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>注文No.</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>缶数</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>備考</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>add</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>ＵＴ－２１０Ｎトップ (15KG)</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>20111653T52</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20210802</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>ＹＫＰ</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>21071953T</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>NO.3</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
-      <c r="L5" s="1" t="n">
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,14 +1536,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.75" customWidth="1" min="1" max="1"/>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="17.38" customWidth="1" min="3" max="3"/>
-    <col width="35.09" customWidth="1" min="4" max="4"/>
+    <col width="19.25" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="8.25" customWidth="1" min="8" max="8"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -1237,7 +1567,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -1309,50 +1639,42 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>名港海運西2区</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>５９３プロパー (UN/15KG)</t>
+          <t>ＰＴ－０４トップ  (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21052006H</t>
+          <t>21072651T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>TTL4231</t>
-        </is>
-      </c>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K5" s="1" t="inlineStr"/>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1363,50 +1685,42 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>名港海運西2区</t>
+          <t>ニシイ</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＬ－１００リターダー (UN/15KG)</t>
+          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21052007H</t>
+          <t>21072751T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>TTL4231</t>
-        </is>
-      </c>
+      <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K6" s="1" t="inlineStr"/>
       <c r="L6" s="1" t="n">
         <v>1</v>
       </c>
@@ -1417,22 +1731,22 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ(改)Ａ液 (UN/14KG)</t>
+          <t>ＳＴ－３２金色　Ｅ－０１４ (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21051304H</t>
+          <t>21072950T</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
@@ -1443,11 +1757,7 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>INK7581</t>
-        </is>
-      </c>
+      <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
@@ -1456,11 +1766,7 @@
           <t>noData</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
         <v>1</v>
       </c>
@@ -1471,35 +1777,35 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210603</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>安達包運　名港西２</t>
+          <t>福山合成㈱東広島工場</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ｋ－７０６ＣＬ(改)Ｃ液 (UN/14KG)</t>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21051305H</t>
+          <t>21062852T</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>INK7581</t>
+          <t>B0188904</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
@@ -1507,447 +1813,11 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>安井様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
       <c r="L8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>21051354T</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>21051751T</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>21051805H</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>21051806H</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>21052004H</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>21052501H</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>21052502H</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>20210603</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>安達包運　名港西２</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>ＲＴ－３２０ (UN/14KG)</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>21052451T</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>INS8301</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Program/出荷実績照会_土気.xlsx
+++ b/Program/出荷実績照会_土気.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_曜日違い_輸出N" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出N" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="トール_通常_輸出N" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ケイヒン_通常_輸出Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="西濃_通常_輸出N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新潟運輸_通常_輸出Y" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -238,6 +239,36 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2400300" cy="595312"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -556,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,12 +597,12 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="14.63" customWidth="1" min="3" max="3"/>
-    <col width="30.69" customWidth="1" min="4" max="4"/>
+    <col width="13.64" customWidth="1" min="3" max="3"/>
+    <col width="33.77" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
+    <col width="13.75" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -595,7 +626,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：4 曜日違い  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -667,26 +698,26 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>ＢタイプＰＰ反射板用塗料 (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21062851T</t>
+          <t>21101405H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
@@ -695,7 +726,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -713,22 +744,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+          <t>Ｂタイプ反射板用塗料 (4KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21072052T</t>
+          <t>21101406H</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
@@ -759,26 +790,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+          <t>伊坂藤枝</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+          <t>ＣタイプＰＰ反射板用塗料 (4KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21071251T</t>
+          <t>21101802H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -787,7 +818,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -796,6 +827,298 @@
       </c>
       <c r="K7" s="1" t="inlineStr"/>
       <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>ヘイワテクノ</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＢＰ－５０アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21082653T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー岡崎</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21090651T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>K8965268</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Ａ－８２０　シンナー　(1KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21092306H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－５４２アンダー　（1KG）</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21101852T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>2110277332</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>南部化成　裾野</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＲＴ－１６０ＨＮＶトップ　（1KG）</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21080451T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>2110277274</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>高圧化工</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶＺ－０２アンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21102554T</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>1090002506-1</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -812,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,14 +1145,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="29.15" customWidth="1" min="4" max="4"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.69" customWidth="1" min="4" max="4"/>
     <col width="12.65" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="13.75" customWidth="1" min="8" max="8"/>
+    <col width="7.590000000000001" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="8.030000000000001" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -851,7 +1174,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
         </is>
       </c>
     </row>
@@ -923,35 +1246,39 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>伊坂藤枝</t>
+          <t>鵜飼塗料商事</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＡＳ－６２１ Ｂ液 (15KG)</t>
+          <t>ＳＴ－３２トップ (15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21072806H</t>
+          <t>21072155T52</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>NO.12</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
@@ -969,26 +1296,26 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>柏真空</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＳＴ－３２トップ (15KG)</t>
+          <t>ガンクリーナーＡ (16㍑）</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21060252T51</t>
+          <t>,002111</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
@@ -997,7 +1324,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr"/>
       <c r="I6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
@@ -1015,26 +1342,26 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>光輝社焼津</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ＫＶ－３８アンダー (15KG)</t>
+          <t>ＴＬ－４００ リターダー (15KG)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>21071951T</t>
+          <t>21091301H</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -1043,7 +1370,7 @@
       </c>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
@@ -1061,43 +1388,39 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＴＬ－４００ リターダー (15KG)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>21052804H</t>
+          <t>21102504H</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>2107261277</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr"/>
@@ -1111,43 +1434,39 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Ａ－８２０　シンナー　(1KG)</t>
+          <t>ＵＶ－５４２ アンダー (15KG)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>21072804H</t>
+          <t>21092752T</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>2107261277</t>
-        </is>
-      </c>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>根上様宛</t>
+          <t>noData</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr"/>
@@ -1161,12 +1480,12 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>南部化成　裾野</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1176,11 +1495,11 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>21071451T</t>
+          <t>21101852T</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
@@ -1189,7 +1508,7 @@
       </c>
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
@@ -1207,22 +1526,22 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>高圧化工</t>
+          <t>美野里真空</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ａ液 (15KG)</t>
+          <t>ＲＴ－１６０ＨＮＶトップ (14KG)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>21062903H</t>
+          <t>21080451T</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
@@ -1233,11 +1552,7 @@
           <t>CN</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>1090001990-1</t>
-        </is>
-      </c>
+      <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="n">
         <v>3</v>
       </c>
@@ -1248,56 +1563,6 @@
       </c>
       <c r="K11" s="1" t="inlineStr"/>
       <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>20210802</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>高圧化工</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－ＰＰＮｏ３ Ｂ液 (3.1KG)</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>21070553T</t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>1090001990-2</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,7 +1579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,14 +1589,14 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="13.64" customWidth="1" min="3" max="3"/>
-    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="17.38" customWidth="1" min="3" max="3"/>
+    <col width="35.86" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
-    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
     <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
   </cols>
@@ -1353,7 +1618,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0007 ケイヒン   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1425,46 +1690,50 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>スタンレー浜松</t>
+          <t>名港海運㈱西2区</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+          <t>ＰＲ－Ａ（ＫＡI） (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21052052T</t>
+          <t>21102003H</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>Q9400116</t>
+          <t>IID0351</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>工場72受入担当：楠様</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr"/>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1475,43 +1744,429 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>ＹＫＰ</t>
+          <t>安達包運　名港西２</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ＭＢ－２０Ｋ２ (15KG)</t>
+          <t>ＲＴ－３２０ (UN/14KG)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>21071953T</t>
+          <t>21102152T</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ THINNER (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21102551T</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21101805H</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ｂ液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21101806H</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ１クリヤー (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21101804H</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ-３０-Ｔ１ メタル (UN/25KG)</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21101803H</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ＳＵ－１００ＨＮＶ Ａ２液 (UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>21101453T</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>INS1971</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>安達包運　名港西２</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴＭ－３０－Ｔ１　(UN/15KG)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>21100603H</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>PHS8161</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +2183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,12 +2193,464 @@
   <cols>
     <col width="2.42" customWidth="1" min="1" max="1"/>
     <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
-    <col width="19.25" customWidth="1" min="3" max="3"/>
-    <col width="33.77" customWidth="1" min="4" max="4"/>
+    <col width="14.63" customWidth="1" min="3" max="3"/>
+    <col width="32.23" customWidth="1" min="4" max="4"/>
+    <col width="12.65" customWidth="1" min="5" max="5"/>
+    <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
+    <col width="4.29" customWidth="1" min="7" max="7"/>
+    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="4.29" customWidth="1" min="9" max="9"/>
+    <col width="19.58" customWidth="1" min="10" max="10"/>
+    <col width="1.65" customWidth="1" min="11" max="11"/>
+    <col width="3.850000000000001" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>出荷実績照会</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>出荷工場：@0002 土気工場</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>運送業者：U0003 西濃   配送区分：1 通常  輸出：N</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>売上日</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>納入先名</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>品名</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ﾛｯﾄNo.</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>売上数量</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>単位</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>注文No.</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>缶数</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>備考</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｔ－５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>21091650T</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２金色Ｂ－９１５ (15KG)</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>新正加工</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>ＳＴ－３２トップ (15KG)</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>21072155T52</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr"/>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>21091351T</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>Q9578675</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>スタンレー浜松</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ＳＶ－３８００ＬＨＲアンダー(1KG)</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>21091351T</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>Q9577407</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>工場72受入担当：楠様</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－２３００Ｌアンダー (15KG)</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>21101451T</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>28649S</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>20211101</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>ﾌｧﾙﾃｯｸ　北関東</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>ＵＶ－３８２Ｖトップ（１５ＫＧ）</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>21093051T</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>28653S</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>noData</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.8" bottom="0.8" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2.42" customWidth="1" min="1" max="1"/>
+    <col width="9.350000000000001" customWidth="1" min="2" max="2"/>
+    <col width="11.77" customWidth="1" min="3" max="3"/>
+    <col width="30.25" customWidth="1" min="4" max="4"/>
     <col width="10.45" customWidth="1" min="5" max="5"/>
     <col width="8.030000000000001" customWidth="1" min="6" max="6"/>
     <col width="4.29" customWidth="1" min="7" max="7"/>
-    <col width="9.350000000000001" customWidth="1" min="8" max="8"/>
+    <col width="8.25" customWidth="1" min="8" max="8"/>
     <col width="4.29" customWidth="1" min="9" max="9"/>
     <col width="7.15" customWidth="1" min="10" max="10"/>
     <col width="1.65" customWidth="1" min="11" max="11"/>
@@ -1567,7 +2674,7 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>運送業者：U0001 トール   配送区分：1 通常  輸出：N</t>
+          <t>運送業者：U0009 新潟運輸   配送区分：1 通常  輸出：Y</t>
         </is>
       </c>
     </row>
@@ -1639,185 +2746,51 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20211101</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>ニシイ</t>
+          <t>築港　名古屋</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ＰＴ－０４トップ  (15KG)</t>
+          <t>ＳＴＲ－１２０－ＶＣ (UN/15KG)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>21072651T</t>
+          <t>21102151T</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>FG10575</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
           <t>noData</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>20210802</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>ニシイ</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ＵＶ－５４２ＢＢアンダー (15KG)</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>21072751T</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>20210802</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>鵜飼塗料商事</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>ＳＴ－３２金色　Ｅ－０１４ (15KG)</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>21072950T</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr"/>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>noData</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr"/>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>20210802</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>福山合成㈱東広島工場</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>ＳＶ－３８００Ｌ　アンダー　（1KG）</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>21062852T</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>B0188904</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>安井様</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
